--- a/e-a-updated.xlsx
+++ b/e-a-updated.xlsx
@@ -355,7 +355,7 @@
   <dimension ref="A1:B891"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A844" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D860" sqref="D860"/>
+      <selection activeCell="B861" sqref="B861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7240,7 +7240,7 @@
         <v>43082</v>
       </c>
       <c r="B860">
-        <v>721.54</v>
+        <v>738.01</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.15">

--- a/e-a-updated.xlsx
+++ b/e-a-updated.xlsx
@@ -355,7 +355,7 @@
   <dimension ref="A1:B891"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A844" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B861" sqref="B861"/>
+      <selection activeCell="A862" sqref="A862"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7244,7 +7244,12 @@
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A861" s="1"/>
+      <c r="A861" s="1">
+        <v>43083</v>
+      </c>
+      <c r="B861">
+        <v>2000</v>
+      </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A862" s="1"/>
